--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Srv-csit\csit\_DOCUMENTOS_SOPORTE\_REMITOS\AEP\_INVENTARIOS AEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ext0429\Desktop\InventarioStockAEP (1)\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="377">
   <si>
     <t>Marca</t>
   </si>
@@ -1173,6 +1173,12 @@
   </si>
   <si>
     <t>Pañol</t>
+  </si>
+  <si>
+    <t>7CT6BJ2</t>
+  </si>
+  <si>
+    <t>EX ARIEL GUEVARA</t>
   </si>
 </sst>
 </file>
@@ -4285,11 +4291,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4297,7 +4303,7 @@
     <col min="1" max="1" width="11.42578125" style="5"/>
     <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="68" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="12" customWidth="1"/>
   </cols>
@@ -4499,6 +4505,20 @@
       </c>
       <c r="F15" s="12" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="6">
+        <v>24</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4528,8 +4548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Srv-csit\csit\_DOCUMENTOS_SOPORTE\_REMITOS\AEP\_INVENTARIOS AEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Asignaciones!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$B$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipos!$A$1:$I$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Monitores!$A$1:$F$1</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="376">
   <si>
     <t>Marca</t>
   </si>
@@ -1173,6 +1173,9 @@
   </si>
   <si>
     <t>Pañol</t>
+  </si>
+  <si>
+    <t>Tipo</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1187,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,6 +1297,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1491,7 +1502,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1688,6 +1699,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Énfasis4" xfId="3" builtinId="43"/>
@@ -1974,941 +1986,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="6.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="I1" s="47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>355526091734785</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>353108084840945</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>359931075339997</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>350233973538070</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>355860108703560</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>359978091198063</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="C11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="31">
+      <c r="D11" s="31">
         <v>358917492213130</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="30"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="50" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="98">
         <v>356012520805214</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>358917492213486</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="31">
+      <c r="D14" s="31">
         <v>358917492212900</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="50" t="s">
+      <c r="G14" s="30"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>358917492153989</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:11" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="C16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="31">
+      <c r="D16" s="31">
         <v>356012520804209</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="70" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:12" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="C17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="31">
+      <c r="D17" s="31">
         <v>356012520805784</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="70" t="s">
+      <c r="G17" s="30"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="L17" s="66" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:12" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="C18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="31">
+      <c r="D18" s="31">
         <v>356012520804258</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="E18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="70" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:12" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="31">
+      <c r="D19" s="31">
         <v>356012520808986</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="70" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="70" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>353108088008408</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="66" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:12" s="66" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="31">
+      <c r="D21" s="31">
         <v>358917492211340</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="H21" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="I21" s="79" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="66" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:12" s="66" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="C22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="31">
+      <c r="D22" s="31">
         <v>358917492213338</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="H22" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="I22" s="79" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="66" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:12" s="66" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="31">
+      <c r="D23" s="31">
         <v>356012520803912</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="30"/>
+      <c r="G23" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="H23" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="H23" s="79" t="s">
+      <c r="I23" s="79" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
+    <row r="24" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>350210395045579</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="95" t="s">
+    <row r="25" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>350210395044929</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="95" t="s">
+    <row r="26" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>350210395044093</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+    <row r="27" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>350210395044606</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95" t="s">
+    <row r="28" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>350210395048474</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+    <row r="29" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>350210395045850</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="95" t="s">
+    <row r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>350210395044473</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="95" t="s">
+    <row r="31" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>350210395045413</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95" t="s">
+    <row r="32" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>350210395044663</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95" t="s">
+    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>350210395000459</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="95" t="s">
+    <row r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>350210395044432</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95" t="s">
+    <row r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>350210395044325</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+    <row r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>350210395049423</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="95" t="s">
+    <row r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>350210395043921</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="95" t="s">
+    <row r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>350210395044945</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="95" t="s">
+    <row r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>350210395044937</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="95" t="s">
+    <row r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>350210395044283</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
+    <row r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>350210395000889</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
+    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>350210395045322</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
+    <row r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>350962634301946</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+    <row r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>350962634197237</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="95" t="s">
+    <row r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>350962634173360</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="95" t="s">
+    <row r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>350962634303009</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="95" t="s">
+    <row r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>350962634301847</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="95" t="s">
+    <row r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>350962634309634</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="95" t="s">
+    <row r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>350962634301789</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="95" t="s">
+    <row r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>350962634308529</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="95" t="s">
+    <row r="51" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>280</v>
+      </c>
+      <c r="B51" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>350962634176652</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="95" t="s">
+    <row r="52" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>350962634308453</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="95" t="s">
+    <row r="53" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>350962634302019</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="95" t="s">
+    <row r="54" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>350962634301888</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="95" t="s">
+    <row r="55" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="4">
+      <c r="D55" s="4">
         <v>350962634308800</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="B1:I1"/>
   <hyperlinks>
-    <hyperlink ref="H11" location="Asignaciones!A4" display="Asignaciones!A4"/>
-    <hyperlink ref="H14" location="Asignaciones!A5" display="Asignaciones!A5"/>
-    <hyperlink ref="H21" location="Asignaciones!A24" display="Asignaciones!A24"/>
-    <hyperlink ref="H22" location="Asignaciones!A25" display="Asignaciones!A25"/>
-    <hyperlink ref="H23" location="Asignaciones!A29" display="Asignaciones!A29"/>
+    <hyperlink ref="I11" location="Asignaciones!A4" display="Asignaciones!A4"/>
+    <hyperlink ref="I14" location="Asignaciones!A5" display="Asignaciones!A5"/>
+    <hyperlink ref="I21" location="Asignaciones!A24" display="Asignaciones!A24"/>
+    <hyperlink ref="I22" location="Asignaciones!A25" display="Asignaciones!A25"/>
+    <hyperlink ref="I23" location="Asignaciones!A29" display="Asignaciones!A29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -4288,7 +4465,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4528,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -9,22 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="1" r:id="rId1"/>
     <sheet name="Equipos" sheetId="3" r:id="rId2"/>
     <sheet name="Monitores" sheetId="4" r:id="rId3"/>
     <sheet name="Perifericos" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId5"/>
     <sheet name="Asignaciones" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Asignaciones!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$B$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipos!$A$1:$I$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Monitores!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Monitores!$B$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="377">
   <si>
     <t>Marca</t>
   </si>
@@ -1176,6 +1175,9 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1504,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1700,6 +1702,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Énfasis4" xfId="3" builtinId="43"/>
@@ -1988,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -3097,7 +3100,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -4462,226 +4465,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5"/>
+    <col min="3" max="3" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" s="67" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="6">
+      <c r="I2" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="6">
+      <c r="I3" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="6">
+      <c r="I4" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:9" s="66" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="48">
+      <c r="E5" s="48"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="48">
         <v>19</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="6">
+      <c r="I6" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="6">
+      <c r="I7" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="6">
+      <c r="H8" s="74"/>
+      <c r="I8" s="6">
         <v>23</v>
       </c>
-      <c r="F8" s="74"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="6">
+      <c r="H9" s="74"/>
+      <c r="I9" s="6">
         <v>19</v>
       </c>
-      <c r="F9" s="74"/>
-    </row>
-    <row r="10" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="48" t="s">
+    </row>
+    <row r="10" spans="1:9" s="66" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="48">
+      <c r="E10" s="99"/>
+      <c r="G10" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="48">
         <v>19</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="6">
+      <c r="H11" s="74"/>
+      <c r="I11" s="6">
         <v>19</v>
       </c>
-      <c r="F11" s="74"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="6">
+      <c r="I12" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="6">
+      <c r="I13" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="6">
+      <c r="H14" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="6">
         <v>19</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="6">
+      <c r="G15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="6">
         <v>24</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>206</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="colorScale" priority="1">
+  <autoFilter ref="B1:H1"/>
+  <conditionalFormatting sqref="B1:E1 I1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4693,8 +4792,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F10" location="Asignaciones!A8" display="Asignaciones!A8"/>
-    <hyperlink ref="F5" location="'Asignaciones'!A18" display="Asignaciones!A18"/>
+    <hyperlink ref="H10" location="Asignaciones!A8" display="Asignaciones!A8"/>
+    <hyperlink ref="H5" location="'Asignaciones'!A18" display="Asignaciones!A18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -4706,7 +4805,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -5439,29 +5538,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5" thickBottom="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="14.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="6"/>
-    <col min="4" max="4" width="15.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="6"/>
-    <col min="9" max="9" width="13.85546875" style="12" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>245</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="36" t="s">
@@ -5481,12 +5569,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>250</v>
@@ -5497,16 +5585,19 @@
       <c r="E2" s="7">
         <v>120344301322</v>
       </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>250</v>
@@ -5517,16 +5608,19 @@
       <c r="E3" s="7">
         <v>121355300815</v>
       </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>250</v>
@@ -5537,16 +5631,19 @@
       <c r="E4" s="7">
         <v>120344302459</v>
       </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>250</v>
@@ -5554,16 +5651,20 @@
       <c r="D5" s="8" t="s">
         <v>253</v>
       </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>250</v>
@@ -5574,16 +5675,19 @@
       <c r="E6" s="7" t="s">
         <v>256</v>
       </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>250</v>
@@ -5591,19 +5695,22 @@
       <c r="D7" s="8" t="s">
         <v>253</v>
       </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
         <v>257</v>
       </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>250</v>
@@ -5611,17 +5718,22 @@
       <c r="D8" s="8" t="s">
         <v>253</v>
       </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>249</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
         <v>259</v>
       </c>
@@ -5637,13 +5749,14 @@
       <c r="H9" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>263</v>
@@ -5654,16 +5767,19 @@
       <c r="E10" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>263</v>
@@ -5674,16 +5790,19 @@
       <c r="E11" s="7" t="s">
         <v>267</v>
       </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>269</v>
@@ -5691,13 +5810,18 @@
       <c r="D12" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>263</v>
@@ -5708,14 +5832,13 @@
       <c r="E13" s="7" t="s">
         <v>272</v>
       </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
-  <sortState ref="A1:I12">
-    <sortCondition ref="I1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5724,8 +5847,8 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5" thickBottom="1" x14ac:dyDescent="0.3"/>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Asignaciones!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$B$1:$I$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Monitores!$B$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1985,6 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2033,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>279</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>279</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>279</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>279</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>279</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>279</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>279</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>279</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="65" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>279</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>279</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>279</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>279</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>279</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>279</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>279</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>279</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>279</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>279</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>279</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>279</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>279</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>279</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>279</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>279</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>279</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>279</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>279</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>279</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>279</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>279</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>279</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>279</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>279</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>279</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>279</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>279</v>
       </c>
@@ -3078,7 +3079,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I1"/>
+  <autoFilter ref="B1:I55">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="358917492213130"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="I11" location="Asignaciones!A4" display="Asignaciones!A4"/>
     <hyperlink ref="I14" location="Asignaciones!A5" display="Asignaciones!A5"/>
@@ -3095,7 +3102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5052,11 +5059,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -5101,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>208</v>
       </c>
@@ -5118,7 +5126,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>208</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>208</v>
       </c>
@@ -5152,7 +5160,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>208</v>
       </c>
@@ -5169,7 +5177,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>208</v>
       </c>
@@ -5186,7 +5194,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>208</v>
       </c>
@@ -5203,7 +5211,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>208</v>
       </c>
@@ -5220,7 +5228,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>208</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>208</v>
       </c>
@@ -5254,7 +5262,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>208</v>
       </c>
@@ -5271,7 +5279,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>208</v>
       </c>
@@ -5288,7 +5296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>208</v>
       </c>
@@ -5305,7 +5313,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>208</v>
       </c>
@@ -5322,7 +5330,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>208</v>
       </c>
@@ -5339,7 +5347,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>208</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>208</v>
       </c>
@@ -5373,7 +5381,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>208</v>
       </c>
@@ -5415,7 +5423,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>208</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>221</v>
       </c>
@@ -5463,7 +5471,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>221</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="65" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="65" customFormat="1" ht="16.149999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>208</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>221</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>208</v>
       </c>
@@ -5569,7 +5577,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="65" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>221</v>
       </c>
@@ -5598,7 +5606,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>208</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>208</v>
       </c>
@@ -5654,7 +5662,7 @@
       </c>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>208</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>360</v>
       </c>
@@ -5712,7 +5720,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>221</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>221</v>
       </c>
@@ -5765,7 +5773,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I32">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CN-0F2J-V2LO300-787-02T6-A03"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="I21" location="Asignaciones!A3" display="Asignaciones!A3"/>
     <hyperlink ref="I19" location="Asignaciones!A2" display="Asignaciones!A2"/>
@@ -6103,8 +6117,8 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5" thickBottom="1" x14ac:dyDescent="0.3"/>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="379">
   <si>
     <t>Marca</t>
   </si>
@@ -879,9 +879,6 @@
     <t>Perifericos!A20</t>
   </si>
   <si>
-    <t>Vicemte Carbone</t>
-  </si>
-  <si>
     <t>Perifericos!A22</t>
   </si>
   <si>
@@ -984,9 +981,6 @@
     <t>Monitores!A5</t>
   </si>
   <si>
-    <t>Martino Aldo</t>
-  </si>
-  <si>
     <t>Perifericos!A26</t>
   </si>
   <si>
@@ -1177,6 +1171,18 @@
   </si>
   <si>
     <t>MODELO</t>
+  </si>
+  <si>
+    <t>Reclamo de equipajes</t>
+  </si>
+  <si>
+    <t>Operaciones</t>
+  </si>
+  <si>
+    <t>Martino, Aldo</t>
+  </si>
+  <si>
+    <t>SFO</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2013,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="2" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -2059,7 +2065,7 @@
     </row>
     <row r="3" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2079,7 +2085,7 @@
     </row>
     <row r="4" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -2099,7 +2105,7 @@
     </row>
     <row r="5" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -2122,7 +2128,7 @@
     </row>
     <row r="6" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="7" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="8" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="9" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="10" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="11" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>13</v>
@@ -2257,7 +2263,7 @@
     </row>
     <row r="12" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -2274,7 +2280,7 @@
     </row>
     <row r="13" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="14" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>13</v>
@@ -2314,7 +2320,7 @@
     </row>
     <row r="15" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -2337,7 +2343,7 @@
     </row>
     <row r="16" spans="1:11" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>13</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="17" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>13</v>
@@ -2386,7 +2392,7 @@
     </row>
     <row r="18" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>13</v>
@@ -2409,7 +2415,7 @@
     </row>
     <row r="19" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>13</v>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="20" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="21" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>13</v>
@@ -2471,18 +2477,18 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I21" s="78" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>13</v>
@@ -2498,10 +2504,10 @@
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="47" t="s">
         <v>321</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>323</v>
       </c>
       <c r="I22" s="78" t="s">
         <v>205</v>
@@ -2509,7 +2515,7 @@
     </row>
     <row r="23" spans="1:12" s="65" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>13</v>
@@ -2525,24 +2531,24 @@
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I23" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D24" s="3">
         <v>350210395045579</v>
@@ -2553,13 +2559,13 @@
     </row>
     <row r="25" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D25" s="3">
         <v>350210395044929</v>
@@ -2570,13 +2576,13 @@
     </row>
     <row r="26" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D26" s="3">
         <v>350210395044093</v>
@@ -2587,13 +2593,13 @@
     </row>
     <row r="27" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B27" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D27" s="3">
         <v>350210395044606</v>
@@ -2604,13 +2610,13 @@
     </row>
     <row r="28" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D28" s="3">
         <v>350210395048474</v>
@@ -2621,13 +2627,13 @@
     </row>
     <row r="29" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D29" s="3">
         <v>350210395045850</v>
@@ -2638,13 +2644,13 @@
     </row>
     <row r="30" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D30" s="3">
         <v>350210395044473</v>
@@ -2655,13 +2661,13 @@
     </row>
     <row r="31" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D31" s="3">
         <v>350210395045413</v>
@@ -2672,13 +2678,13 @@
     </row>
     <row r="32" spans="1:12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D32" s="3">
         <v>350210395044663</v>
@@ -2689,13 +2695,13 @@
     </row>
     <row r="33" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D33" s="3">
         <v>350210395000459</v>
@@ -2706,13 +2712,13 @@
     </row>
     <row r="34" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D34" s="3">
         <v>350210395044432</v>
@@ -2723,13 +2729,13 @@
     </row>
     <row r="35" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D35" s="3">
         <v>350210395044325</v>
@@ -2740,13 +2746,13 @@
     </row>
     <row r="36" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D36" s="3">
         <v>350210395049423</v>
@@ -2757,13 +2763,13 @@
     </row>
     <row r="37" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B37" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D37" s="3">
         <v>350210395043921</v>
@@ -2774,13 +2780,13 @@
     </row>
     <row r="38" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B38" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D38" s="3">
         <v>350210395044945</v>
@@ -2791,13 +2797,13 @@
     </row>
     <row r="39" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D39" s="3">
         <v>350210395044937</v>
@@ -2808,13 +2814,13 @@
     </row>
     <row r="40" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B40" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D40" s="3">
         <v>350210395044283</v>
@@ -2825,13 +2831,13 @@
     </row>
     <row r="41" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D41" s="3">
         <v>350210395000889</v>
@@ -2842,13 +2848,13 @@
     </row>
     <row r="42" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D42" s="3">
         <v>350210395045322</v>
@@ -2859,13 +2865,13 @@
     </row>
     <row r="43" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D43" s="3">
         <v>350962634301946</v>
@@ -2876,13 +2882,13 @@
     </row>
     <row r="44" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D44" s="3">
         <v>350962634197237</v>
@@ -2893,13 +2899,13 @@
     </row>
     <row r="45" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B45" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D45" s="3">
         <v>350962634173360</v>
@@ -2910,13 +2916,13 @@
     </row>
     <row r="46" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B46" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D46" s="3">
         <v>350962634303009</v>
@@ -2927,13 +2933,13 @@
     </row>
     <row r="47" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B47" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D47" s="3">
         <v>350962634301847</v>
@@ -2944,13 +2950,13 @@
     </row>
     <row r="48" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B48" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D48" s="3">
         <v>350962634309634</v>
@@ -2961,13 +2967,13 @@
     </row>
     <row r="49" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D49" s="3">
         <v>350962634301789</v>
@@ -2978,13 +2984,13 @@
     </row>
     <row r="50" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D50" s="3">
         <v>350962634308529</v>
@@ -2995,13 +3001,13 @@
     </row>
     <row r="51" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B51" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D51" s="3">
         <v>350962634176652</v>
@@ -3012,13 +3018,13 @@
     </row>
     <row r="52" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B52" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D52" s="3">
         <v>350962634308453</v>
@@ -3029,13 +3035,13 @@
     </row>
     <row r="53" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B53" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D53" s="3">
         <v>350962634302019</v>
@@ -3046,13 +3052,13 @@
     </row>
     <row r="54" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B54" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D54" s="3">
         <v>350962634301888</v>
@@ -3063,13 +3069,13 @@
     </row>
     <row r="55" spans="1:5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B55" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D55" s="3">
         <v>350962634308800</v>
@@ -3879,7 +3885,7 @@
         <v>121</v>
       </c>
       <c r="I37" s="68" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4498,20 +4504,20 @@
         <v>174</v>
       </c>
       <c r="D67" s="58" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E67" s="89"/>
       <c r="F67" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G67" s="47" t="s">
         <v>216</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I67" s="90" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4525,20 +4531,20 @@
         <v>174</v>
       </c>
       <c r="D68" s="58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G68" s="47" t="s">
         <v>216</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I68" s="68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4552,20 +4558,20 @@
         <v>174</v>
       </c>
       <c r="D69" s="58" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E69" s="91"/>
       <c r="F69" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G69" s="47" t="s">
         <v>216</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I69" s="68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4582,7 +4588,7 @@
         <v>75</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
@@ -4602,10 +4608,10 @@
         <v>163</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
@@ -4628,7 +4634,7 @@
         <v>79</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
@@ -4651,11 +4657,11 @@
         <v>77</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="11"/>
@@ -4674,7 +4680,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
@@ -4691,13 +4697,13 @@
         <v>53</v>
       </c>
       <c r="C75" s="57" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D75" s="58">
         <v>801334001001007</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F75" s="47"/>
       <c r="G75" s="47" t="s">
@@ -4726,7 +4732,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -4742,7 +4748,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="66" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>179</v>
@@ -4771,13 +4777,13 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>185</v>
@@ -4788,13 +4794,13 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>186</v>
@@ -4805,13 +4811,13 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>187</v>
@@ -4822,13 +4828,13 @@
     </row>
     <row r="5" spans="1:9" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>188</v>
@@ -4847,13 +4853,13 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>191</v>
@@ -4864,13 +4870,13 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>192</v>
@@ -4881,13 +4887,13 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>193</v>
@@ -4899,13 +4905,13 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>194</v>
@@ -4917,13 +4923,13 @@
     </row>
     <row r="10" spans="1:9" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="64" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>195</v>
@@ -4941,13 +4947,13 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>198</v>
@@ -4959,13 +4965,13 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>199</v>
@@ -4976,13 +4982,13 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>200</v>
@@ -4993,13 +4999,13 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>201</v>
@@ -5013,13 +5019,13 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>203</v>
@@ -5062,7 +5068,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
@@ -5646,19 +5652,19 @@
         <v>215</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H28" s="33">
         <v>45174</v>
       </c>
       <c r="I28" s="93" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K28" s="41"/>
     </row>
@@ -5673,27 +5679,27 @@
         <v>215</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>216</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H29" s="33">
         <v>45175</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>53</v>
@@ -5702,22 +5708,22 @@
         <v>215</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>216</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H30" s="33">
         <v>45175</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5728,10 +5734,10 @@
         <v>53</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D31" s="96" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>216</v>
@@ -5740,13 +5746,13 @@
         <v>234</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H31" s="52">
         <v>45175</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5760,13 +5766,13 @@
         <v>215</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>216</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H32" s="33">
         <v>45180</v>
@@ -5820,7 +5826,7 @@
         <v>179</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>180</v>
@@ -6116,9 +6122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -6219,7 +6225,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>277</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>376</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="39">
@@ -6227,12 +6236,12 @@
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>44</v>
@@ -6247,25 +6256,25 @@
         <v>216</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>281</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="39">
         <v>45146</v>
       </c>
       <c r="K4" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>282</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>44</v>
@@ -6280,19 +6289,19 @@
         <v>216</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>284</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>285</v>
       </c>
       <c r="J5" s="39">
         <v>45148</v>
       </c>
       <c r="K5" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
@@ -6311,17 +6320,20 @@
       <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="17" t="s">
+        <v>375</v>
+      </c>
       <c r="H6" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J6" s="39">
         <v>45154</v>
       </c>
       <c r="K6" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L6" s="43" t="s">
         <v>289</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
@@ -6341,21 +6353,21 @@
         <v>10</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J7" s="39">
         <v>45155</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>53</v>
@@ -6366,13 +6378,19 @@
       <c r="E8" s="17">
         <v>19</v>
       </c>
+      <c r="G8" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>196</v>
+      </c>
       <c r="L8" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>44</v>
@@ -6387,21 +6405,21 @@
         <v>216</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="J9" s="39">
         <v>45155</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
@@ -6416,21 +6434,21 @@
         <v>216</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="J10" s="39">
         <v>45155</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>44</v>
@@ -6445,21 +6463,21 @@
         <v>216</v>
       </c>
       <c r="G11" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="J11" s="39">
         <v>45155</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>44</v>
@@ -6474,16 +6492,16 @@
         <v>216</v>
       </c>
       <c r="G12" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="J12" s="39">
         <v>45155</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6506,7 +6524,7 @@
         <v>45160</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6526,16 +6544,16 @@
         <v>210</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J14" s="39">
         <v>45162</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6555,19 +6573,19 @@
         <v>10</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J15" s="39">
         <v>45163</v>
       </c>
       <c r="K15" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="L15" s="42" t="s">
         <v>305</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6584,19 +6602,19 @@
         <v>10</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J16" s="39">
         <v>45163</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6610,30 +6628,30 @@
         <v>118</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J17" s="39">
         <v>45163</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>53</v>
@@ -6642,25 +6660,25 @@
         <v>188</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J18" s="39">
         <v>45163</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6680,7 +6698,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>234</v>
@@ -6689,7 +6707,7 @@
         <v>45166</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6708,6 +6726,9 @@
       <c r="F20" s="17" t="s">
         <v>210</v>
       </c>
+      <c r="G20" s="17" t="s">
+        <v>377</v>
+      </c>
       <c r="H20" s="17" t="s">
         <v>234</v>
       </c>
@@ -6718,12 +6739,12 @@
         <v>45166</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>53</v>
@@ -6732,7 +6753,7 @@
         <v>203</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>10</v>
@@ -6741,7 +6762,7 @@
         <v>204</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J21" s="39">
         <v>45166</v>
@@ -6787,27 +6808,27 @@
         <v>7300</v>
       </c>
       <c r="F23" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>318</v>
       </c>
       <c r="J23" s="39">
         <v>45169</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L23" s="77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>44</v>
@@ -6822,24 +6843,24 @@
         <v>216</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J24" s="39">
         <v>45170</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>44</v>
@@ -6854,19 +6875,19 @@
         <v>216</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J25" s="39">
         <v>45170</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="87" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6877,7 +6898,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="82">
@@ -6887,20 +6908,20 @@
         <v>216</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H26" s="83"/>
       <c r="I26" s="84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J26" s="85">
         <v>45170</v>
       </c>
       <c r="K26" s="86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="87" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6911,7 +6932,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="82"/>
@@ -6919,20 +6940,20 @@
         <v>216</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H27" s="83"/>
       <c r="I27" s="84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J27" s="85">
         <v>45170</v>
       </c>
       <c r="K27" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L27" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="87" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6943,7 +6964,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="82"/>
@@ -6951,25 +6972,25 @@
         <v>216</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J28" s="85">
         <v>45170</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L28" s="42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>44</v>
@@ -6984,19 +7005,19 @@
         <v>216</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J29" s="39">
         <v>45170</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
@@ -7007,7 +7028,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>215</v>
@@ -7016,10 +7037,10 @@
         <v>210</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J30" s="33">
         <v>45174</v>
@@ -7028,7 +7049,7 @@
         <v>462563</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7039,27 +7060,29 @@
         <v>53</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>215</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="I31" s="42"/>
+        <v>363</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>357</v>
+      </c>
       <c r="J31" s="33">
         <v>45175</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7070,7 +7093,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
@@ -7080,17 +7103,19 @@
         <v>216</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="I32" s="42"/>
+        <v>363</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>357</v>
+      </c>
       <c r="J32" s="33">
         <v>45175</v>
       </c>
       <c r="L32" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
@@ -7101,7 +7126,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>215</v>
@@ -7110,13 +7135,13 @@
         <v>216</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>234</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J33" s="39">
         <v>45175</v>
@@ -7125,7 +7150,7 @@
         <v>462402</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,10 @@
     <sheet name="Memorias" sheetId="11" r:id="rId5"/>
     <sheet name="Asignaciones" sheetId="12" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipos!$A$1:$J$77</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="415">
   <si>
     <t>Marca</t>
   </si>
@@ -741,9 +745,6 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>32gb</t>
-  </si>
-  <si>
     <t>Kingston</t>
   </si>
   <si>
@@ -765,9 +766,6 @@
     <t>WD Blue</t>
   </si>
   <si>
-    <t>500gb</t>
-  </si>
-  <si>
     <t>WXB1A16A93PK</t>
   </si>
   <si>
@@ -1204,6 +1202,93 @@
   </si>
   <si>
     <t>UBICACIÓN</t>
+  </si>
+  <si>
+    <t>Azpiri, Felipe</t>
+  </si>
+  <si>
+    <t>Lopez Rouger, Jose</t>
+  </si>
+  <si>
+    <t>Asignacion!A40</t>
+  </si>
+  <si>
+    <t>J3 Prime</t>
+  </si>
+  <si>
+    <t>Ex Lopez Rouger</t>
+  </si>
+  <si>
+    <t>7MCRQ13</t>
+  </si>
+  <si>
+    <t>Ex Condinanzo</t>
+  </si>
+  <si>
+    <t>CQBNQ13</t>
+  </si>
+  <si>
+    <t>Ex Aldo Martino</t>
+  </si>
+  <si>
+    <t>1DX2V52</t>
+  </si>
+  <si>
+    <t>Ex credenciales</t>
+  </si>
+  <si>
+    <t>Control Terminal</t>
+  </si>
+  <si>
+    <t>Asignaciones!A38</t>
+  </si>
+  <si>
+    <t>Compaq 6000</t>
+  </si>
+  <si>
+    <t>BRG019FCLT</t>
+  </si>
+  <si>
+    <t>Windows 7 y 4gb de RAM</t>
+  </si>
+  <si>
+    <t>Ex Control Terminal</t>
+  </si>
+  <si>
+    <t>Disco</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>256GB</t>
+  </si>
+  <si>
+    <t>EJ94N13192204E2J</t>
+  </si>
+  <si>
+    <t>Funciona</t>
+  </si>
+  <si>
+    <t>MJ89N611111009N3X</t>
+  </si>
+  <si>
+    <t>SK Hynix</t>
+  </si>
+  <si>
+    <t>Mercado, Brian</t>
+  </si>
+  <si>
+    <t>Equipos!A76</t>
+  </si>
+  <si>
+    <t>Celulares!A56</t>
+  </si>
+  <si>
+    <t>Celulares!A57</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1300,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,8 +1414,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1367,6 +1466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,7 +1642,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1741,6 +1846,14 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Énfasis4" xfId="3" builtinId="43"/>
@@ -2027,17 +2140,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I54"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2052,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -2066,7 +2190,7 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2078,10 +2202,10 @@
         <v>355526091734785</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -2091,7 +2215,7 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2103,10 +2227,10 @@
         <v>353108084840945</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
@@ -2114,7 +2238,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2126,10 +2250,10 @@
         <v>359931075339997</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
@@ -2137,7 +2261,7 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -2147,10 +2271,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
@@ -2162,7 +2286,7 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -2172,10 +2296,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -2185,7 +2309,7 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -2197,10 +2321,10 @@
         <v>350233973538070</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5" t="s">
@@ -2210,7 +2334,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2222,10 +2346,10 @@
         <v>355860108703560</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
@@ -2237,7 +2361,7 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -2249,10 +2373,10 @@
         <v>359978091198063</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -2262,7 +2386,7 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>11</v>
@@ -2277,7 +2401,7 @@
         <v>199</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="47"/>
@@ -2287,7 +2411,7 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -2302,7 +2426,7 @@
         <v>199</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
@@ -2310,7 +2434,7 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -2325,7 +2449,7 @@
         <v>199</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
@@ -2333,7 +2457,7 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>11</v>
@@ -2348,7 +2472,7 @@
         <v>199</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="47"/>
@@ -2358,7 +2482,7 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -2370,10 +2494,10 @@
         <v>358917492153989</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -2383,7 +2507,7 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>11</v>
@@ -2398,7 +2522,7 @@
         <v>199</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="47"/>
@@ -2408,7 +2532,7 @@
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>11</v>
@@ -2423,7 +2547,7 @@
         <v>199</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="47"/>
@@ -2433,7 +2557,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>11</v>
@@ -2448,7 +2572,7 @@
         <v>199</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="47"/>
@@ -2458,7 +2582,7 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>11</v>
@@ -2473,7 +2597,7 @@
         <v>199</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="47"/>
@@ -2483,7 +2607,7 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -2495,10 +2619,10 @@
         <v>353108088008408</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5" t="s">
@@ -2508,7 +2632,7 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>11</v>
@@ -2523,21 +2647,21 @@
         <v>199</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I20" s="78" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>11</v>
@@ -2555,10 +2679,10 @@
         <v>217</v>
       </c>
       <c r="G21" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="H21" s="47" t="s">
         <v>304</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>306</v>
       </c>
       <c r="I21" s="78" t="s">
         <v>188</v>
@@ -2566,7 +2690,7 @@
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>11</v>
@@ -2581,27 +2705,27 @@
         <v>199</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I22" s="78" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B23" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D23" s="3">
         <v>350210395045579</v>
@@ -2610,7 +2734,7 @@
         <v>199</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5"/>
@@ -2618,13 +2742,13 @@
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D24" s="3">
         <v>350210395044929</v>
@@ -2633,25 +2757,25 @@
         <v>199</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D25" s="3">
         <v>350210395044093</v>
@@ -2660,25 +2784,25 @@
         <v>199</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B26" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D26" s="3">
         <v>350210395044606</v>
@@ -2687,7 +2811,7 @@
         <v>199</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="5"/>
@@ -2695,13 +2819,13 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D27" s="3">
         <v>350210395048474</v>
@@ -2710,7 +2834,7 @@
         <v>199</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="5"/>
@@ -2718,13 +2842,13 @@
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B28" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D28" s="3">
         <v>350210395045850</v>
@@ -2733,7 +2857,7 @@
         <v>199</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="5"/>
@@ -2741,13 +2865,13 @@
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B29" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D29" s="3">
         <v>350210395044473</v>
@@ -2756,7 +2880,7 @@
         <v>199</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="5"/>
@@ -2764,13 +2888,13 @@
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B30" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D30" s="3">
         <v>350210395045413</v>
@@ -2779,7 +2903,7 @@
         <v>199</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="5"/>
@@ -2787,13 +2911,13 @@
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B31" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D31" s="3">
         <v>350210395044663</v>
@@ -2802,7 +2926,7 @@
         <v>199</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="5"/>
@@ -2810,13 +2934,13 @@
     </row>
     <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B32" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D32" s="3">
         <v>350210395000459</v>
@@ -2825,7 +2949,7 @@
         <v>199</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="5"/>
@@ -2833,13 +2957,13 @@
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D33" s="3">
         <v>350210395044432</v>
@@ -2848,25 +2972,25 @@
         <v>199</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I33" s="49" t="s">
         <v>357</v>
-      </c>
-      <c r="I33" s="49" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B34" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D34" s="3">
         <v>350210395044325</v>
@@ -2875,25 +2999,25 @@
         <v>199</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I34" s="49" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B35" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D35" s="3">
         <v>350210395049423</v>
@@ -2902,7 +3026,7 @@
         <v>199</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="5"/>
@@ -2910,13 +3034,13 @@
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B36" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D36" s="3">
         <v>350210395043921</v>
@@ -2925,7 +3049,7 @@
         <v>199</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="5"/>
@@ -2933,13 +3057,13 @@
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D37" s="3">
         <v>350210395044945</v>
@@ -2948,7 +3072,7 @@
         <v>199</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="5"/>
@@ -2956,13 +3080,13 @@
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B38" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D38" s="3">
         <v>350210395044937</v>
@@ -2971,7 +3095,7 @@
         <v>199</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="5"/>
@@ -2979,13 +3103,13 @@
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B39" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D39" s="3">
         <v>350210395044283</v>
@@ -2994,7 +3118,7 @@
         <v>199</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="5"/>
@@ -3002,13 +3126,13 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B40" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D40" s="3">
         <v>350210395000889</v>
@@ -3017,7 +3141,7 @@
         <v>199</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="5"/>
@@ -3025,13 +3149,13 @@
     </row>
     <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B41" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D41" s="3">
         <v>350210395045322</v>
@@ -3040,7 +3164,7 @@
         <v>199</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="5"/>
@@ -3048,13 +3172,13 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B42" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D42" s="3">
         <v>350962634301946</v>
@@ -3063,7 +3187,7 @@
         <v>199</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="5"/>
@@ -3071,13 +3195,13 @@
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B43" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D43" s="3">
         <v>350962634197237</v>
@@ -3086,7 +3210,7 @@
         <v>199</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="5"/>
@@ -3094,13 +3218,13 @@
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B44" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D44" s="3">
         <v>350962634173360</v>
@@ -3109,7 +3233,7 @@
         <v>199</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="5"/>
@@ -3117,13 +3241,13 @@
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B45" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D45" s="3">
         <v>350962634303009</v>
@@ -3132,7 +3256,7 @@
         <v>199</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="5"/>
@@ -3140,13 +3264,13 @@
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B46" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D46" s="3">
         <v>350962634301847</v>
@@ -3155,7 +3279,7 @@
         <v>199</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="5"/>
@@ -3163,13 +3287,13 @@
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B47" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D47" s="3">
         <v>350962634309634</v>
@@ -3178,7 +3302,7 @@
         <v>199</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="5"/>
@@ -3186,13 +3310,13 @@
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B48" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D48" s="3">
         <v>350962634301789</v>
@@ -3201,7 +3325,7 @@
         <v>199</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="5"/>
@@ -3209,13 +3333,13 @@
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B49" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D49" s="3">
         <v>350962634308529</v>
@@ -3224,7 +3348,7 @@
         <v>199</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="5"/>
@@ -3232,13 +3356,13 @@
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B50" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D50" s="3">
         <v>350962634176652</v>
@@ -3247,7 +3371,7 @@
         <v>199</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="5"/>
@@ -3255,13 +3379,13 @@
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B51" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D51" s="3">
         <v>350962634308453</v>
@@ -3270,7 +3394,7 @@
         <v>199</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="5"/>
@@ -3278,13 +3402,13 @@
     </row>
     <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B52" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D52" s="3">
         <v>350962634302019</v>
@@ -3293,7 +3417,7 @@
         <v>199</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="5"/>
@@ -3301,13 +3425,13 @@
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B53" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D53" s="3">
         <v>350962634301888</v>
@@ -3316,7 +3440,7 @@
         <v>199</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="5"/>
@@ -3324,13 +3448,13 @@
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B54" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D54" s="3">
         <v>350962634308800</v>
@@ -3339,13 +3463,95 @@
         <v>199</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="5"/>
       <c r="I54" s="48"/>
     </row>
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" s="3">
+        <v>351123904452062</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="48"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="3">
+        <v>358917492213346</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" s="3">
+        <v>359931075766652</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I57" s="48"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I1"/>
   <hyperlinks>
     <hyperlink ref="I10" location="Asignaciones!A4" display="Asignaciones!A4"/>
     <hyperlink ref="I13" location="Asignaciones!A5" display="Asignaciones!A5"/>
@@ -3356,6 +3562,7 @@
     <hyperlink ref="I24" location="Asignaciones!A35" display="Asignacion!A35"/>
     <hyperlink ref="I34" location="Asignaciones!A36" display="Asignacion!A36"/>
     <hyperlink ref="I25" location="Asignaciones!A37" display="Asignacion!A37"/>
+    <hyperlink ref="I56" location="Asignaciones!A40" display="Asignacion!A40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3363,13 +3570,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
@@ -3388,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>4</v>
@@ -3417,10 +3634,10 @@
         <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -3441,10 +3658,10 @@
         <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3459,16 +3676,16 @@
         <v>43</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -3491,10 +3708,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>50</v>
@@ -3519,10 +3736,10 @@
         <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -3546,7 +3763,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -3567,10 +3784,10 @@
         <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3585,16 +3802,16 @@
         <v>43</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
@@ -3611,16 +3828,16 @@
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -3641,10 +3858,10 @@
         <v>60</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>61</v>
@@ -3667,10 +3884,10 @@
         <v>62</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>63</v>
@@ -3693,10 +3910,10 @@
         <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>65</v>
@@ -3713,16 +3930,16 @@
         <v>43</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>67</v>
@@ -3745,10 +3962,10 @@
         <v>68</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>69</v>
@@ -3771,10 +3988,10 @@
         <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
@@ -3797,10 +4014,10 @@
         <v>74</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -3821,10 +4038,10 @@
         <v>77</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -3845,10 +4062,10 @@
         <v>801334001001023</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -3869,10 +4086,10 @@
         <v>801334001001034</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="47" t="s">
@@ -3895,10 +4112,10 @@
         <v>82</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
@@ -3921,10 +4138,10 @@
         <v>800618501001145</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G22" s="47" t="s">
         <v>85</v>
@@ -3951,10 +4168,10 @@
         <v>800584301001002</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
@@ -3977,10 +4194,10 @@
         <v>800584301001066</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
@@ -4003,10 +4220,10 @@
         <v>801230601001070</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4027,10 +4244,10 @@
         <v>90</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4051,10 +4268,10 @@
         <v>800888401001045</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4075,10 +4292,10 @@
         <v>92</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4101,10 +4318,10 @@
         <v>95</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -4125,10 +4342,10 @@
         <v>96</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -4149,10 +4366,10 @@
         <v>98</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -4173,10 +4390,10 @@
         <v>99</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -4197,10 +4414,10 @@
         <v>101</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -4215,16 +4432,16 @@
         <v>43</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -4245,10 +4462,10 @@
         <v>105</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -4269,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -4293,7 +4510,7 @@
         <v>107</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>108</v>
@@ -4306,7 +4523,7 @@
         <v>109</v>
       </c>
       <c r="J37" s="68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4323,10 +4540,10 @@
         <v>110</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -4347,10 +4564,10 @@
         <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -4371,10 +4588,10 @@
         <v>112</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -4395,10 +4612,10 @@
         <v>114</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -4419,10 +4636,10 @@
         <v>115</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -4443,10 +4660,10 @@
         <v>116</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -4467,10 +4684,10 @@
         <v>118</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -4491,10 +4708,10 @@
         <v>120</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -4515,10 +4732,10 @@
         <v>121</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -4539,10 +4756,10 @@
         <v>122</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -4563,10 +4780,10 @@
         <v>124</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G48" s="65"/>
       <c r="H48" s="47"/>
@@ -4585,10 +4802,10 @@
       <c r="C49" s="27"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>127</v>
@@ -4611,10 +4828,10 @@
         <v>128</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -4635,10 +4852,10 @@
         <v>130</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4659,10 +4876,10 @@
         <v>131</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
@@ -4685,10 +4902,10 @@
         <v>801230601001011</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
@@ -4711,10 +4928,10 @@
         <v>135</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
@@ -4737,10 +4954,10 @@
         <v>137</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
@@ -4766,7 +4983,7 @@
         <v>54</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>140</v>
@@ -4791,10 +5008,10 @@
         <v>144</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>145</v>
@@ -4819,10 +5036,10 @@
         <v>49</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G58" s="76" t="s">
         <v>148</v>
@@ -4848,7 +5065,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>150</v>
@@ -4871,10 +5088,10 @@
         <v>152</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
@@ -4897,10 +5114,10 @@
         <v>44</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -4921,10 +5138,10 @@
         <v>46</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -4945,10 +5162,10 @@
         <v>156</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>61</v>
@@ -4971,10 +5188,10 @@
         <v>52</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="5"/>
@@ -4995,10 +5212,10 @@
         <v>160</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="5" t="s">
@@ -5018,23 +5235,23 @@
         <v>157</v>
       </c>
       <c r="D66" s="58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>199</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G66" s="89"/>
       <c r="H66" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J66" s="90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5048,23 +5265,23 @@
         <v>157</v>
       </c>
       <c r="D67" s="58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E67" s="47" t="s">
         <v>199</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G67" s="91"/>
       <c r="H67" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J67" s="68" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5078,7 +5295,7 @@
         <v>157</v>
       </c>
       <c r="D68" s="58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>199</v>
@@ -5088,13 +5305,13 @@
       </c>
       <c r="G68" s="91"/>
       <c r="H68" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J68" s="68" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5114,10 +5331,10 @@
         <v>54</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="17"/>
@@ -5134,16 +5351,16 @@
         <v>147</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="17"/>
@@ -5163,13 +5380,13 @@
         <v>68</v>
       </c>
       <c r="E71" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="17"/>
@@ -5192,10 +5409,10 @@
         <v>54</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="17"/>
@@ -5209,25 +5426,134 @@
         <v>43</v>
       </c>
       <c r="C73" s="57" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D73" s="58">
         <v>801334001001007</v>
       </c>
       <c r="E73" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="F73" s="47" t="s">
-        <v>382</v>
-      </c>
       <c r="G73" s="47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H73" s="47"/>
       <c r="I73" s="21"/>
       <c r="J73" s="59"/>
     </row>
+    <row r="74" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F74" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F75" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F76" s="101" t="s">
+        <v>397</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="J76" s="42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E77" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="11"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J77"/>
   <hyperlinks>
     <hyperlink ref="J48" location="Asignaciones!A7" display="Asignaciones!A7"/>
     <hyperlink ref="J22" location="'Asignaciones'!A14" display="Asignaciones!A14"/>
@@ -5236,6 +5562,7 @@
     <hyperlink ref="J67" location="Asignaciones!A28" display="Asignaciones!A28"/>
     <hyperlink ref="J68" location="Asignaciones!A27" display="Asignaciones!A27"/>
     <hyperlink ref="J37" location="Asignaciones!A17" display="Asignaciones!A17"/>
+    <hyperlink ref="J76" location="Asignaciones!A38" display="Asignaciones!A38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5268,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>164</v>
@@ -5285,22 +5612,22 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G2" s="5">
         <v>19</v>
@@ -5311,22 +5638,22 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G3" s="5">
         <v>19</v>
@@ -5337,22 +5664,22 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="5">
         <v>17</v>
@@ -5363,19 +5690,19 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>171</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>108</v>
@@ -5393,22 +5720,22 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G6" s="5">
         <v>19</v>
@@ -5419,22 +5746,22 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G7" s="5">
         <v>22</v>
@@ -5445,22 +5772,22 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="5">
         <v>23</v>
@@ -5471,22 +5798,22 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="5">
         <v>19</v>
@@ -5497,19 +5824,19 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B10" s="64" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>178</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>179</v>
@@ -5527,22 +5854,22 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="5">
         <v>19</v>
@@ -5553,22 +5880,22 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>182</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G12" s="5">
         <v>19</v>
@@ -5579,22 +5906,22 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G13" s="5">
         <v>19</v>
@@ -5605,22 +5932,22 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G14" s="5">
         <v>19</v>
@@ -5633,22 +5960,22 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G15" s="5">
         <v>24</v>
@@ -5663,28 +5990,28 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G16" s="5">
         <v>24</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="11"/>
@@ -5749,7 +6076,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>4</v>
@@ -5776,10 +6103,10 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
@@ -5800,10 +6127,10 @@
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17" t="s">
@@ -5824,10 +6151,10 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17" t="s">
@@ -5848,10 +6175,10 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17" t="s">
@@ -5872,10 +6199,10 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
@@ -5896,10 +6223,10 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
@@ -5920,10 +6247,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
@@ -5944,10 +6271,10 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
@@ -5968,10 +6295,10 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
@@ -5995,7 +6322,7 @@
         <v>199</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
@@ -6019,7 +6346,7 @@
         <v>199</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="s">
@@ -6043,7 +6370,7 @@
         <v>199</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
@@ -6067,7 +6394,7 @@
         <v>199</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="s">
@@ -6091,7 +6418,7 @@
         <v>199</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
@@ -6115,7 +6442,7 @@
         <v>199</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
@@ -6139,7 +6466,7 @@
         <v>199</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="s">
@@ -6163,7 +6490,7 @@
         <v>199</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17" t="s">
@@ -6186,10 +6513,10 @@
         <v>200</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -6212,10 +6539,10 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>202</v>
@@ -6242,13 +6569,13 @@
         <v>205</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="52">
@@ -6270,10 +6597,10 @@
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>207</v>
@@ -6300,7 +6627,7 @@
         <v>209</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>210</v>
@@ -6330,7 +6657,7 @@
         <v>213</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>210</v>
@@ -6360,7 +6687,7 @@
         <v>215</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>217</v>
@@ -6390,7 +6717,7 @@
         <v>219</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>217</v>
@@ -6422,7 +6749,7 @@
         <v>223</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>224</v>
@@ -6451,23 +6778,23 @@
         <v>198</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>331</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>333</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="33">
         <v>45174</v>
       </c>
       <c r="J28" s="93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6481,30 +6808,30 @@
         <v>198</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>199</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I29" s="33">
         <v>45175</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>43</v>
@@ -6513,25 +6840,25 @@
         <v>198</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>199</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I30" s="33">
         <v>45175</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6542,10 +6869,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D31" s="96" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>199</v>
@@ -6557,13 +6884,13 @@
         <v>217</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I31" s="52">
         <v>45175</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6577,16 +6904,16 @@
         <v>198</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>199</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="33">
@@ -6615,15 +6942,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6643,7 +6971,7 @@
         <v>229</v>
       </c>
       <c r="F1" s="100" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>228</v>
@@ -6670,13 +6998,13 @@
         <v>120344301322</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>233</v>
+        <v>405</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -6696,13 +7024,13 @@
         <v>121355300815</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>233</v>
+        <v>405</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -6722,13 +7050,13 @@
         <v>120344302459</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>233</v>
+        <v>405</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -6739,20 +7067,20 @@
         <v>231</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -6760,25 +7088,25 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -6786,49 +7114,49 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -6839,50 +7167,50 @@
         <v>231</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -6890,25 +7218,25 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>199</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -6916,23 +7244,23 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -6940,29 +7268,96 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="6">
+        <v>122444300013</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="102" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6971,18 +7366,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7009,7 +7406,7 @@
         <v>40</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>5</v>
@@ -7018,10 +7415,10 @@
         <v>190</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7042,7 +7439,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="17"/>
@@ -7051,7 +7448,7 @@
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7072,7 +7469,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="17"/>
@@ -7081,12 +7478,12 @@
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>34</v>
@@ -7102,25 +7499,25 @@
         <v>199</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="39">
         <v>45146</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>34</v>
@@ -7136,20 +7533,20 @@
         <v>199</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="39">
         <v>45148</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7171,17 +7568,17 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="39">
         <v>45154</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7202,10 +7599,10 @@
         <v>9</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="39">
@@ -7213,12 +7610,12 @@
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>43</v>
@@ -7237,12 +7634,12 @@
       <c r="J8" s="39"/>
       <c r="K8" s="41"/>
       <c r="L8" s="43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>34</v>
@@ -7258,23 +7655,23 @@
         <v>199</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J9" s="39">
         <v>45155</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>34</v>
@@ -7290,23 +7687,23 @@
         <v>199</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J10" s="39">
         <v>45155</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>34</v>
@@ -7322,23 +7719,23 @@
         <v>199</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J11" s="39">
         <v>45155</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>34</v>
@@ -7354,18 +7751,18 @@
         <v>199</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J12" s="39">
         <v>45155</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7393,7 +7790,7 @@
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7414,10 +7811,10 @@
         <v>193</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="39">
@@ -7425,7 +7822,7 @@
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7446,20 +7843,20 @@
         <v>9</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="39">
         <v>45163</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7478,20 +7875,20 @@
         <v>9</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="39">
         <v>45163</v>
       </c>
       <c r="K16" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L16" s="42" t="s">
         <v>288</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7506,31 +7903,31 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="39">
         <v>45163</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>43</v>
@@ -7540,26 +7937,26 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="39">
         <v>45163</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7580,7 +7977,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>217</v>
@@ -7591,7 +7988,7 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="42" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7623,12 +8020,12 @@
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>43</v>
@@ -7638,7 +8035,7 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>9</v>
@@ -7647,7 +8044,7 @@
         <v>187</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="39">
@@ -7701,28 +8098,28 @@
         <v>7300</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J23" s="39">
         <v>45169</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L23" s="77" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>34</v>
@@ -7738,25 +8135,25 @@
         <v>199</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J24" s="39">
         <v>45170</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>34</v>
@@ -7772,20 +8169,20 @@
         <v>199</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J25" s="39">
         <v>45170</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7796,7 +8193,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="82">
@@ -7806,20 +8203,20 @@
         <v>199</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H26" s="83"/>
       <c r="I26" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J26" s="85">
         <v>45170</v>
       </c>
       <c r="K26" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7830,7 +8227,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="82"/>
@@ -7838,20 +8235,20 @@
         <v>199</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H27" s="83"/>
       <c r="I27" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J27" s="85">
         <v>45170</v>
       </c>
       <c r="K27" s="86" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L27" s="42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7862,7 +8259,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="82"/>
@@ -7870,25 +8267,25 @@
         <v>199</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J28" s="85">
         <v>45170</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L28" s="42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>34</v>
@@ -7904,20 +8301,20 @@
         <v>199</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J29" s="39">
         <v>45170</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7928,7 +8325,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="17" t="s">
@@ -7938,10 +8335,10 @@
         <v>193</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I30" s="33"/>
       <c r="J30" s="33">
@@ -7951,7 +8348,7 @@
         <v>462563</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7962,20 +8359,20 @@
         <v>43</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>198</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="33">
@@ -7983,7 +8380,7 @@
       </c>
       <c r="K31" s="41"/>
       <c r="L31" s="42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7994,7 +8391,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
@@ -8004,10 +8401,10 @@
         <v>199</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I32" s="42"/>
       <c r="J32" s="33">
@@ -8015,7 +8412,7 @@
       </c>
       <c r="K32" s="41"/>
       <c r="L32" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8026,7 +8423,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="17" t="s">
@@ -8036,13 +8433,13 @@
         <v>199</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>217</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J33" s="39">
         <v>45175</v>
@@ -8051,7 +8448,7 @@
         <v>462402</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8066,16 +8463,16 @@
         <v>350210395044432</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="39">
@@ -8083,7 +8480,7 @@
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8098,16 +8495,16 @@
         <v>350210395044929</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="39">
@@ -8115,7 +8512,7 @@
       </c>
       <c r="K35" s="41"/>
       <c r="L35" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8130,16 +8527,16 @@
         <v>350210395044325</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I36" s="33"/>
       <c r="J36" s="39">
@@ -8147,7 +8544,7 @@
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8162,16 +8559,16 @@
         <v>350210395044093</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="39">
@@ -8179,7 +8576,105 @@
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J38" s="39">
+        <v>45202</v>
+      </c>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="104">
+        <v>351123904452062</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="39">
+        <v>45201</v>
+      </c>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="3">
+        <v>358917492213346</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="33"/>
+      <c r="J40" s="39">
+        <v>45203</v>
+      </c>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -8214,6 +8709,9 @@
     <hyperlink ref="L35" location="Celulares!A25" display="Celulares!A25"/>
     <hyperlink ref="L36" location="Celulares!A35" display="Celulares!A35"/>
     <hyperlink ref="L37" location="Celulares!A26" display="Celulares!A26"/>
+    <hyperlink ref="L38" location="Equipos!A76" display="Equipos!A76"/>
+    <hyperlink ref="L39" location="Celulares!A56" display="Celulares!A56"/>
+    <hyperlink ref="L40" location="Celulares!A57" display="Celulares!A57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="7" r:id="rId1"/>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7368,7 +7368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipos!$A$1:$J$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Memorias!$A$1:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -6049,7 +6050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6939,9 +6942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7357,6 +7358,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Celulares" sheetId="7" r:id="rId1"/>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,6 +3564,7 @@
     <hyperlink ref="I56" location="Asignaciones!A40" display="Asignacion!A40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5571,7 +5572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6942,7 +6945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/stockcau/Mueble Cau.xlsx
+++ b/stockcau/Mueble Cau.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Asignaciones" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Celulares!$A$1:$I$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipos!$A$1:$J$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Memorias!$A$1:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$A$1:$J$32</definedName>
@@ -2142,7 +2142,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3550,7 +3550,7 @@
       <c r="I57" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I57"/>
   <hyperlinks>
     <hyperlink ref="I10" location="Asignaciones!A4" display="Asignaciones!A4"/>
     <hyperlink ref="I13" location="Asignaciones!A5" display="Asignaciones!A5"/>
